--- a/test_cases/test_data2.xlsx
+++ b/test_cases/test_data2.xlsx
@@ -47,7 +47,7 @@
     <t>usefixtures</t>
   </si>
   <si>
-    <t>auto_login_admin</t>
+    <t>auto_login_driver</t>
   </si>
   <si>
     <t>用例注解</t>
@@ -1264,7 +1264,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1426,7 +1426,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="3"/>
